--- a/papers/pygSpanish/Disponibilidad Info08.xlsx
+++ b/papers/pygSpanish/Disponibilidad Info08.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,18 +34,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Dificultad para 
+      <t>Dificultad para 
 Obtenerl</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">a**</t>
+      <t>a**</t>
     </r>
   </si>
   <si>
@@ -49,18 +53,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">¿Herramienta disponible?</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>¿Herramienta disponible?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">****</t>
+      <t>****</t>
     </r>
   </si>
   <si>
@@ -70,9 +74,6 @@
     <t>Bases de datos</t>
   </si>
   <si>
-    <t>   Población</t>
-  </si>
-  <si>
     <t>Datos</t>
   </si>
   <si>
@@ -94,21 +95,12 @@
     <t>INE-IENGI</t>
   </si>
   <si>
-    <t>   Población indígena</t>
-  </si>
-  <si>
     <t>CDI</t>
   </si>
   <si>
-    <t>   Vías de comunciación</t>
-  </si>
-  <si>
     <t>SCT</t>
   </si>
   <si>
-    <t>   Tiempos de traslado</t>
-  </si>
-  <si>
     <t>✗</t>
   </si>
   <si>
@@ -118,37 +110,19 @@
     <t>INE</t>
   </si>
   <si>
-    <t>   Contigüidad geográfica</t>
-  </si>
-  <si>
     <t>Software GIS</t>
   </si>
   <si>
-    <t>   Municipios únicos***</t>
-  </si>
-  <si>
     <t>Cartografía</t>
   </si>
   <si>
-    <t>   Administrativa (estados, municipios)</t>
-  </si>
-  <si>
     <t>Sección</t>
   </si>
   <si>
     <t>INE-INEGI</t>
   </si>
   <si>
-    <t>   Accidentes geográficos</t>
-  </si>
-  <si>
     <t>INEGI</t>
-  </si>
-  <si>
-    <t>   División política federal</t>
-  </si>
-  <si>
-    <t>   División política local</t>
   </si>
   <si>
     <r>
@@ -158,10 +132,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Menlo Regular"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">*</t>
+      <t>*</t>
     </r>
   </si>
   <si>
@@ -174,15 +147,9 @@
     <t>Fórmulas matemáticas</t>
   </si>
   <si>
-    <t>   Algoritmo optimizador</t>
-  </si>
-  <si>
     <t>Texto</t>
   </si>
   <si>
-    <t>   Componentes del modelo</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -191,7 +158,7 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
@@ -208,7 +175,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">de optimización</t>
+      <t>de optimización</t>
     </r>
   </si>
   <si>
@@ -223,11 +190,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Software</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
+      <t>Software</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
@@ -244,11 +211,8 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">del INE</t>
-    </r>
-  </si>
-  <si>
-    <t>   Plataforma de indicadores</t>
+      <t>del INE</t>
+    </r>
   </si>
   <si>
     <r>
@@ -269,39 +233,18 @@
     <t>Mapas y revisiones</t>
   </si>
   <si>
-    <t>   Escenarios automatizados</t>
-  </si>
-  <si>
     <t>Distrito-estado</t>
   </si>
   <si>
-    <t>   Escenarios partidistas</t>
-  </si>
-  <si>
     <t>INE-Partidos</t>
   </si>
   <si>
-    <t>   Justificación partidista</t>
-  </si>
-  <si>
-    <t>   Fallos del comité técnico</t>
-  </si>
-  <si>
     <t>Normatividad</t>
   </si>
   <si>
-    <t>   Marco legal</t>
-  </si>
-  <si>
-    <t>   Acuerdos del Consejo General del INE</t>
-  </si>
-  <si>
     <t>Resultados electorales</t>
   </si>
   <si>
-    <t>   Periodo 1997-2015</t>
-  </si>
-  <si>
     <t>Base de datos</t>
   </si>
   <si>
@@ -309,11 +252,11 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">* En muchos estados  la cartografía está disponible sólo en formato fotográfico que no puede ser leído por software</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
+      <t>* En muchos estados  la cartografía está disponible sólo en formato fotográfico que no puede ser leído por software</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -332,37 +275,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">** Clasificación  realizada por los autores: </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Alta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (la información no está en línea y el órgano carece de un medio de distribución público),  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>*** Municipios no susceptibles de ser fragmentados por su naturaleza geográfica, densidad o tipo de población.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">**** Herramienta disponible en </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Media</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">software </t>
     </r>
     <r>
       <rPr>
@@ -371,50 +299,18 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (la información no está en línea, pero la institución tiene un medio de distribución</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">público), </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Baja</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (la información está disponible en línea).</t>
-    </r>
-  </si>
-  <si>
-    <t>*** Municipios no susceptibles de ser fragmentados por su naturaleza geográfica, densidad o tipo de población.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">**** Herramienta disponible en </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
+      <t>comercial y en software</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">software </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -422,68 +318,164 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+      </rPr>
+      <t>de código abierto.</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes on the Diagram</t>
+  </si>
+  <si>
+    <t>Seems that what we are talking of transparency in the table, relate to the Diagram (Table 1 satisfies transparency, but not participation). If you satisfy table one, Seems we should indicate where we are, and were this intervention would get us. Mexico is at level 3. In order to get to level 4, Table 1 is necessary. The redistricting and Technology (redistricting in the West, awerness, comentary. participation, being incorporated in the process). There is another level: 1) able to evealuate countreproposals and 2) can you comment on proposals and submit (informally)? 3) be part of the decission process formally? There needs to be something between 3 and 4 that says where we are and what the intervention does? The fifth level, seems odd. There is a difference between direct formal involvement in the process of redistricting and formal access to representation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">** Clasificación  realizada por los autores: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">comercial y en software</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
+      <t>Alta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (la información no está en línea y el órgano carece de un medio de distribución público),  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">de código abierto.</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes on the Diagram</t>
-  </si>
-  <si>
-    <t>Seems that what we are talking of transparency in the table, relate to the Diagram (Table 1 satisfies transparency, but not participation). If you satisfy table one, Seems we should indicate where we are, and were this intervention would get us. Mexico is at level 3. In order to get to level 4, Table 1 is necessary. The redistricting and Technology (redistricting in the West, awerness, comentary. participation, being incorporated in the process). There is another level: 1) able to evealuate countreproposals and 2) can you comment on proposals and submit (informally)? 3) be part of the decission process formally? There needs to be something between 3 and 4 that says where we are and what the intervention does? The fifth level, seems odd. There is a difference between direct formal involvement in the process of redistricting and formal access to representation.</t>
+      <t>Media</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (la información no está en línea, pero la institución tiene un medio de distribución, y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Baja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (la información está disponible en línea).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Población</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Población indígena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Vías de comunciación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Tiempos de traslado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Contigüidad geográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Municipios únicos***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Administrativa (estados, municipios)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Accidentes geográficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   División política federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   División política local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Algoritmo optimizador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Componentes del modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Plataforma de indicadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Escenarios automatizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Escenarios partidistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Justificación partidista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Fallos del comité técnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Marco legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Acuerdos del Consejo General del INE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Periodo 1997-2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -493,7 +485,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -501,14 +493,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -516,8 +508,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -535,17 +527,15 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Menlo Regular"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Menlo Regular"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -553,7 +543,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -567,25 +557,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -601,11 +584,27 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -624,185 +623,439 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AME49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6592592592593"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.662962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8296296296296"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="8.83333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.83333333333333"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="1019" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="34" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -828,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -840,163 +1093,163 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -1006,9 +1259,9 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
@@ -1018,111 +1271,111 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1132,9 +1385,9 @@
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -1144,59 +1397,59 @@
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -1206,9 +1459,9 @@
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -1218,85 +1471,85 @@
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1306,9 +1559,9 @@
       <c r="G24" s="7"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -1318,111 +1571,111 @@
       <c r="G25" s="7"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8">
       <c r="A26" s="13" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="6"/>
       <c r="C30" s="15"/>
@@ -1432,9 +1685,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
@@ -1444,59 +1697,59 @@
       <c r="G31" s="7"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8">
       <c r="A32" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G32" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="15"/>
       <c r="B34" s="6"/>
       <c r="C34" s="15"/>
@@ -1506,9 +1759,9 @@
       <c r="G34" s="7"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
@@ -1518,33 +1771,33 @@
       <c r="G35" s="7"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8">
       <c r="A36" s="16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G36" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1554,9 +1807,9 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -1566,9 +1819,9 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -1578,9 +1831,9 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8">
       <c r="A40" s="20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -1590,9 +1843,9 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8">
       <c r="A41" s="22" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -1602,9 +1855,9 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8">
       <c r="A42" s="22" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1614,7 +1867,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1624,7 +1877,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1634,7 +1887,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1644,7 +1897,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1654,26 +1907,26 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="F48" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="409" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="409">
       <c r="F49" s="24" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>